--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlanSam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC51A2F-D3B7-45FC-A609-4E90ED487F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950BD4D-F85F-411B-B3BF-A5847BE7613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4F9A9B44-54FA-4D5C-A39D-44836A046FE4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="480">
   <si>
     <t>City</t>
   </si>
@@ -1434,6 +1434,48 @@
   </si>
   <si>
     <t>Tube Invenstments</t>
+  </si>
+  <si>
+    <t>PoC</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Anish</t>
+  </si>
+  <si>
+    <t>Sri Charitha</t>
+  </si>
+  <si>
+    <t>Nethra</t>
+  </si>
+  <si>
+    <t>Alagappan</t>
+  </si>
+  <si>
+    <t>Thiyagarajan</t>
+  </si>
+  <si>
+    <t>Elesh</t>
+  </si>
+  <si>
+    <t>PKS</t>
+  </si>
+  <si>
+    <t>Aumgana</t>
+  </si>
+  <si>
+    <t>Neha /Aumgana</t>
+  </si>
+  <si>
+    <t>Thiyagarajan / Alan</t>
   </si>
 </sst>
 </file>
@@ -1814,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9A6602-B321-4885-AC95-A67957842A95}">
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F2" sqref="F2:F318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1827,9 +1869,10 @@
     <col min="3" max="3" width="37.6328125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1845,8 +1888,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1874,7 +1920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1888,7 +1934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1930,7 +1976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1944,7 +1990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1958,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1972,7 +2018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1986,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2000,7 +2046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2014,7 +2060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2028,7 +2074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2042,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2056,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2069,8 +2115,11 @@
       <c r="E17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2083,8 +2132,11 @@
       <c r="E18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2098,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2112,7 +2164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2126,7 +2178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2140,7 +2192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2154,7 +2206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2168,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2181,8 +2233,11 @@
       <c r="E25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2195,8 +2250,11 @@
       <c r="E26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2209,8 +2267,11 @@
       <c r="E27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2223,8 +2284,11 @@
       <c r="E28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2237,8 +2301,11 @@
       <c r="E29" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2251,8 +2318,11 @@
       <c r="E30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2265,8 +2335,11 @@
       <c r="E31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2279,8 +2352,11 @@
       <c r="E32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2293,8 +2369,11 @@
       <c r="E33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -2307,8 +2386,11 @@
       <c r="E34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2321,8 +2403,11 @@
       <c r="E35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2335,8 +2420,11 @@
       <c r="E36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2349,8 +2437,11 @@
       <c r="E37" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2363,8 +2454,11 @@
       <c r="E38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -2377,8 +2471,11 @@
       <c r="E39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2391,8 +2488,11 @@
       <c r="E40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2405,8 +2505,11 @@
       <c r="E41" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -2419,8 +2522,11 @@
       <c r="E42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2433,8 +2539,11 @@
       <c r="E43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2447,8 +2556,11 @@
       <c r="E44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2573,11 @@
       <c r="E45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2475,8 +2590,11 @@
       <c r="E46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2489,8 +2607,11 @@
       <c r="E47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -2503,8 +2624,11 @@
       <c r="E48" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -2517,8 +2641,11 @@
       <c r="E49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -2531,8 +2658,11 @@
       <c r="E50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2545,8 +2675,11 @@
       <c r="E51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2559,8 +2692,11 @@
       <c r="E52" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2573,8 +2709,11 @@
       <c r="E53" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>117</v>
       </c>
@@ -2587,8 +2726,11 @@
       <c r="E54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -2601,8 +2743,11 @@
       <c r="E55" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -2615,8 +2760,11 @@
       <c r="E56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2777,11 @@
       <c r="E57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2643,8 +2794,11 @@
       <c r="E58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -2657,8 +2811,11 @@
       <c r="E59" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -2671,8 +2828,11 @@
       <c r="E60" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -2685,8 +2845,11 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2699,8 +2862,11 @@
       <c r="E62" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2713,8 +2879,11 @@
       <c r="E63" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2727,8 +2896,11 @@
       <c r="E64" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2741,8 +2913,11 @@
       <c r="E65" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -2755,8 +2930,11 @@
       <c r="E66" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -2769,8 +2947,11 @@
       <c r="E67" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -2783,8 +2964,11 @@
       <c r="E68" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2797,8 +2981,11 @@
       <c r="E69" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -2811,8 +2998,11 @@
       <c r="E70" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -2825,8 +3015,11 @@
       <c r="E71" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -2839,8 +3032,11 @@
       <c r="E72" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -2853,8 +3049,11 @@
       <c r="E73" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -2867,8 +3066,11 @@
       <c r="E74" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -2881,8 +3083,11 @@
       <c r="E75" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -2895,8 +3100,11 @@
       <c r="E76" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -2909,8 +3117,11 @@
       <c r="E77" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -2923,8 +3134,11 @@
       <c r="E78" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -2937,8 +3151,11 @@
       <c r="E79" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -2951,8 +3168,11 @@
       <c r="E80" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -2965,8 +3185,11 @@
       <c r="E81" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2979,8 +3202,11 @@
       <c r="E82" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -2993,8 +3219,11 @@
       <c r="E83" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -3007,8 +3236,11 @@
       <c r="E84" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -3021,8 +3253,11 @@
       <c r="E85" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -3035,8 +3270,11 @@
       <c r="E86" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>168</v>
       </c>
@@ -3049,8 +3287,11 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -3063,8 +3304,11 @@
       <c r="E88" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -3077,8 +3321,11 @@
       <c r="E89" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -3091,8 +3338,11 @@
       <c r="E90" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>143</v>
       </c>
@@ -3105,8 +3355,11 @@
       <c r="E91" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>80</v>
       </c>
@@ -3119,8 +3372,11 @@
       <c r="E92" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -3133,8 +3389,11 @@
       <c r="E93" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -3147,8 +3406,11 @@
       <c r="E94" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -3161,8 +3423,11 @@
       <c r="E95" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -3175,8 +3440,11 @@
       <c r="E96" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F96" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -3189,8 +3457,11 @@
       <c r="E97" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>184</v>
       </c>
@@ -3203,8 +3474,11 @@
       <c r="E98" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -3217,8 +3491,11 @@
       <c r="E99" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -3231,8 +3508,11 @@
       <c r="E100" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -3245,8 +3525,11 @@
       <c r="E101" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -3259,8 +3542,11 @@
       <c r="E102" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -3273,8 +3559,11 @@
       <c r="E103" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -3287,8 +3576,11 @@
       <c r="E104" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>73</v>
       </c>
@@ -3301,8 +3593,11 @@
       <c r="E105" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -3315,8 +3610,11 @@
       <c r="E106" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>73</v>
       </c>
@@ -3329,8 +3627,11 @@
       <c r="E107" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>195</v>
       </c>
@@ -3343,8 +3644,11 @@
       <c r="E108" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -3357,8 +3661,11 @@
       <c r="E109" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>198</v>
       </c>
@@ -3371,8 +3678,11 @@
       <c r="E110" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>200</v>
       </c>
@@ -3385,8 +3695,11 @@
       <c r="E111" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -3399,8 +3712,11 @@
       <c r="E112" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>203</v>
       </c>
@@ -3413,8 +3729,11 @@
       <c r="E113" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F113" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -3427,8 +3746,11 @@
       <c r="E114" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F114" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>66</v>
       </c>
@@ -3441,8 +3763,11 @@
       <c r="E115" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>209</v>
       </c>
@@ -3455,8 +3780,11 @@
       <c r="E116" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F116" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -3469,8 +3797,11 @@
       <c r="E117" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>212</v>
       </c>
@@ -3483,8 +3814,11 @@
       <c r="E118" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F118" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>214</v>
       </c>
@@ -3497,8 +3831,11 @@
       <c r="E119" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F119" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>216</v>
       </c>
@@ -3511,8 +3848,11 @@
       <c r="E120" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F120" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>218</v>
       </c>
@@ -3525,8 +3865,11 @@
       <c r="E121" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F121" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -3539,8 +3882,11 @@
       <c r="E122" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F122" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -3553,8 +3899,11 @@
       <c r="E123" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F123" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -3567,8 +3916,11 @@
       <c r="E124" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F124" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -3581,8 +3933,11 @@
       <c r="E125" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F125" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>227</v>
       </c>
@@ -3595,8 +3950,11 @@
       <c r="E126" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F126" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>229</v>
       </c>
@@ -3609,8 +3967,11 @@
       <c r="E127" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F127" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>231</v>
       </c>
@@ -3623,8 +3984,11 @@
       <c r="E128" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>73</v>
       </c>
@@ -3637,8 +4001,11 @@
       <c r="E129" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>78</v>
       </c>
@@ -3651,8 +4018,11 @@
       <c r="E130" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>235</v>
       </c>
@@ -3665,8 +4035,11 @@
       <c r="E131" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -3679,8 +4052,11 @@
       <c r="E132" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>75</v>
       </c>
@@ -3693,8 +4069,11 @@
       <c r="E133" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>239</v>
       </c>
@@ -3707,8 +4086,11 @@
       <c r="E134" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>112</v>
       </c>
@@ -3721,8 +4103,11 @@
       <c r="E135" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>242</v>
       </c>
@@ -3735,8 +4120,11 @@
       <c r="E136" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>244</v>
       </c>
@@ -3749,8 +4137,11 @@
       <c r="E137" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -3763,8 +4154,11 @@
       <c r="E138" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F138" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>244</v>
       </c>
@@ -3777,8 +4171,11 @@
       <c r="E139" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F139" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>73</v>
       </c>
@@ -3791,8 +4188,11 @@
       <c r="E140" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>248</v>
       </c>
@@ -3805,8 +4205,11 @@
       <c r="E141" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F141" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>248</v>
       </c>
@@ -3819,8 +4222,11 @@
       <c r="E142" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F142" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>251</v>
       </c>
@@ -3833,8 +4239,11 @@
       <c r="E143" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F143" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>253</v>
       </c>
@@ -3847,8 +4256,11 @@
       <c r="E144" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -3861,8 +4273,11 @@
       <c r="E145" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>256</v>
       </c>
@@ -3875,8 +4290,11 @@
       <c r="E146" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>80</v>
       </c>
@@ -3889,8 +4307,11 @@
       <c r="E147" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>80</v>
       </c>
@@ -3903,8 +4324,11 @@
       <c r="E148" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>44</v>
       </c>
@@ -3917,8 +4341,11 @@
       <c r="E149" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>239</v>
       </c>
@@ -3931,8 +4358,11 @@
       <c r="E150" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -3945,8 +4375,11 @@
       <c r="E151" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>80</v>
       </c>
@@ -3959,8 +4392,11 @@
       <c r="E152" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F152" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>265</v>
       </c>
@@ -3973,8 +4409,11 @@
       <c r="E153" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>66</v>
       </c>
@@ -3987,8 +4426,11 @@
       <c r="E154" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F154" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>41</v>
       </c>
@@ -4001,8 +4443,11 @@
       <c r="E155" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F155" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>44</v>
       </c>
@@ -4015,8 +4460,11 @@
       <c r="E156" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F156" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>110</v>
       </c>
@@ -4029,8 +4477,11 @@
       <c r="E157" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F157" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>73</v>
       </c>
@@ -4043,8 +4494,11 @@
       <c r="E158" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F158" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>95</v>
       </c>
@@ -4057,8 +4511,11 @@
       <c r="E159" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F159" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -4071,8 +4528,11 @@
       <c r="E160" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F160" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>73</v>
       </c>
@@ -4085,8 +4545,11 @@
       <c r="E161" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F161" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>41</v>
       </c>
@@ -4099,8 +4562,11 @@
       <c r="E162" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F162" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>276</v>
       </c>
@@ -4113,8 +4579,11 @@
       <c r="E163" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F163" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>80</v>
       </c>
@@ -4127,8 +4596,11 @@
       <c r="E164" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F164" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>279</v>
       </c>
@@ -4141,8 +4613,11 @@
       <c r="E165" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F165" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>216</v>
       </c>
@@ -4155,8 +4630,11 @@
       <c r="E166" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F166" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>282</v>
       </c>
@@ -4169,8 +4647,11 @@
       <c r="E167" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F167" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -4183,8 +4664,11 @@
       <c r="E168" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F168" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>60</v>
       </c>
@@ -4197,8 +4681,11 @@
       <c r="E169" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F169" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>286</v>
       </c>
@@ -4211,8 +4698,11 @@
       <c r="E170" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F170" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -4225,8 +4715,11 @@
       <c r="E171" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F171" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>191</v>
       </c>
@@ -4239,8 +4732,11 @@
       <c r="E172" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F172" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>290</v>
       </c>
@@ -4253,8 +4749,11 @@
       <c r="E173" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F173" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>73</v>
       </c>
@@ -4267,8 +4766,11 @@
       <c r="E174" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F174" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>78</v>
       </c>
@@ -4281,8 +4783,11 @@
       <c r="E175" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F175" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>149</v>
       </c>
@@ -4295,8 +4800,11 @@
       <c r="E176" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F176" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>149</v>
       </c>
@@ -4309,8 +4817,11 @@
       <c r="E177" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F177" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>149</v>
       </c>
@@ -4323,8 +4834,11 @@
       <c r="E178" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F178" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -4337,8 +4851,11 @@
       <c r="E179" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F179" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>298</v>
       </c>
@@ -4351,8 +4868,11 @@
       <c r="E180" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F180" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>298</v>
       </c>
@@ -4365,8 +4885,11 @@
       <c r="E181" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F181" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -4379,8 +4902,11 @@
       <c r="E182" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F182" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -4393,8 +4919,11 @@
       <c r="E183" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F183" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -4407,8 +4936,11 @@
       <c r="E184" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F184" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>60</v>
       </c>
@@ -4421,8 +4953,11 @@
       <c r="E185" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F185" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>95</v>
       </c>
@@ -4435,8 +4970,11 @@
       <c r="E186" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>304</v>
       </c>
@@ -4449,8 +4987,11 @@
       <c r="E187" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F187" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>57</v>
       </c>
@@ -4463,8 +5004,11 @@
       <c r="E188" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F188" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -4477,8 +5021,11 @@
       <c r="E189" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F189" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>29</v>
       </c>
@@ -4491,8 +5038,11 @@
       <c r="E190" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F190" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>102</v>
       </c>
@@ -4505,8 +5055,11 @@
       <c r="E191" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F191" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>73</v>
       </c>
@@ -4519,8 +5072,11 @@
       <c r="E192" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F192" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>80</v>
       </c>
@@ -4533,8 +5089,11 @@
       <c r="E193" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F193" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>312</v>
       </c>
@@ -4547,8 +5106,11 @@
       <c r="E194" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F194" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>314</v>
       </c>
@@ -4561,8 +5123,11 @@
       <c r="E195" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F195" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>314</v>
       </c>
@@ -4575,8 +5140,11 @@
       <c r="E196" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F196" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>316</v>
       </c>
@@ -4589,8 +5157,11 @@
       <c r="E197" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F197" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>73</v>
       </c>
@@ -4603,8 +5174,11 @@
       <c r="E198" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F198" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -4617,8 +5191,11 @@
       <c r="E199" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F199" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>80</v>
       </c>
@@ -4631,8 +5208,11 @@
       <c r="E200" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F200" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>321</v>
       </c>
@@ -4645,8 +5225,11 @@
       <c r="E201" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F201" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>80</v>
       </c>
@@ -4659,8 +5242,11 @@
       <c r="E202" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>324</v>
       </c>
@@ -4673,8 +5259,11 @@
       <c r="E203" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F203" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -4687,8 +5276,11 @@
       <c r="E204" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F204" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>44</v>
       </c>
@@ -4701,8 +5293,11 @@
       <c r="E205" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F205" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -4715,8 +5310,11 @@
       <c r="E206" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F206" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>80</v>
       </c>
@@ -4729,8 +5327,11 @@
       <c r="E207" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F207" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>149</v>
       </c>
@@ -4743,8 +5344,11 @@
       <c r="E208" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F208" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>304</v>
       </c>
@@ -4757,8 +5361,11 @@
       <c r="E209" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F209" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -4771,8 +5378,11 @@
       <c r="E210" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F210" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>334</v>
       </c>
@@ -4785,8 +5395,11 @@
       <c r="E211" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F211" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>336</v>
       </c>
@@ -4799,8 +5412,11 @@
       <c r="E212" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F212" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>338</v>
       </c>
@@ -4813,8 +5429,11 @@
       <c r="E213" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>338</v>
       </c>
@@ -4827,8 +5446,11 @@
       <c r="E214" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F214" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>341</v>
       </c>
@@ -4841,8 +5463,11 @@
       <c r="E215" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F215" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>131</v>
       </c>
@@ -4855,8 +5480,11 @@
       <c r="E216" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>36</v>
       </c>
@@ -4869,8 +5497,11 @@
       <c r="E217" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F217" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -4883,8 +5514,11 @@
       <c r="E218" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F218" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -4897,8 +5531,11 @@
       <c r="E219" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F219" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -4911,8 +5548,11 @@
       <c r="E220" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F220" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>80</v>
       </c>
@@ -4925,8 +5565,11 @@
       <c r="E221" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F221" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>44</v>
       </c>
@@ -4939,8 +5582,11 @@
       <c r="E222" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F222" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>44</v>
       </c>
@@ -4953,8 +5599,11 @@
       <c r="E223" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F223" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>350</v>
       </c>
@@ -4967,8 +5616,11 @@
       <c r="E224" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F224" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>352</v>
       </c>
@@ -4981,8 +5633,11 @@
       <c r="E225" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F225" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>80</v>
       </c>
@@ -4995,8 +5650,11 @@
       <c r="E226" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F226" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>171</v>
       </c>
@@ -5009,8 +5667,11 @@
       <c r="E227" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F227" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>356</v>
       </c>
@@ -5023,8 +5684,11 @@
       <c r="E228" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F228" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>358</v>
       </c>
@@ -5037,8 +5701,11 @@
       <c r="E229" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F229" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>360</v>
       </c>
@@ -5051,8 +5718,11 @@
       <c r="E230" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F230" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>16</v>
       </c>
@@ -5065,8 +5735,11 @@
       <c r="E231" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F231" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>73</v>
       </c>
@@ -5079,8 +5752,11 @@
       <c r="E232" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F232" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>80</v>
       </c>
@@ -5093,8 +5769,11 @@
       <c r="E233" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F233" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>222</v>
       </c>
@@ -5107,8 +5786,11 @@
       <c r="E234" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F234" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>75</v>
       </c>
@@ -5121,8 +5803,11 @@
       <c r="E235" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F235" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5820,11 @@
       <c r="E236" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>16</v>
       </c>
@@ -5149,8 +5837,11 @@
       <c r="E237" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F237" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>222</v>
       </c>
@@ -5163,8 +5854,11 @@
       <c r="E238" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F238" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>371</v>
       </c>
@@ -5177,8 +5871,11 @@
       <c r="E239" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F239" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>44</v>
       </c>
@@ -5191,8 +5888,11 @@
       <c r="E240" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F240" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>41</v>
       </c>
@@ -5205,8 +5905,11 @@
       <c r="E241" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F241" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>41</v>
       </c>
@@ -5219,8 +5922,11 @@
       <c r="E242" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F242" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>41</v>
       </c>
@@ -5233,8 +5939,11 @@
       <c r="E243" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F243" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>376</v>
       </c>
@@ -5247,8 +5956,11 @@
       <c r="E244" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F244" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5973,11 @@
       <c r="E245" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F245" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5990,11 @@
       <c r="E246" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F246" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>44</v>
       </c>
@@ -5289,8 +6007,11 @@
       <c r="E247" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F247" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>242</v>
       </c>
@@ -5303,8 +6024,11 @@
       <c r="E248" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F248" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>75</v>
       </c>
@@ -5317,8 +6041,11 @@
       <c r="E249" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F249" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>80</v>
       </c>
@@ -5331,8 +6058,11 @@
       <c r="E250" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F250" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -5342,8 +6072,11 @@
       <c r="E251" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F251" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>385</v>
       </c>
@@ -5356,8 +6089,11 @@
       <c r="E252" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F252" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>149</v>
       </c>
@@ -5370,8 +6106,11 @@
       <c r="E253" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F253" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>80</v>
       </c>
@@ -5384,8 +6123,11 @@
       <c r="E254" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F254" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>216</v>
       </c>
@@ -5398,8 +6140,11 @@
       <c r="E255" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F255" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>149</v>
       </c>
@@ -5412,8 +6157,11 @@
       <c r="E256" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F256" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>391</v>
       </c>
@@ -5426,8 +6174,11 @@
       <c r="E257" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F257" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>73</v>
       </c>
@@ -5440,8 +6191,11 @@
       <c r="E258" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F258" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -5454,8 +6208,11 @@
       <c r="E259" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F259" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>360</v>
       </c>
@@ -5468,8 +6225,11 @@
       <c r="E260" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F260" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>29</v>
       </c>
@@ -5482,8 +6242,11 @@
       <c r="E261" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F261" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>69</v>
       </c>
@@ -5496,8 +6259,11 @@
       <c r="E262" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F262" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>398</v>
       </c>
@@ -5510,8 +6276,11 @@
       <c r="E263" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F263" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>350</v>
       </c>
@@ -5524,8 +6293,11 @@
       <c r="E264" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F264" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -5538,8 +6310,11 @@
       <c r="E265" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F265" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>41</v>
       </c>
@@ -5552,8 +6327,11 @@
       <c r="E266" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F266" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>149</v>
       </c>
@@ -5566,8 +6344,11 @@
       <c r="E267" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F267" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>404</v>
       </c>
@@ -5580,8 +6361,11 @@
       <c r="E268" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F268" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>216</v>
       </c>
@@ -5595,7 +6379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>80</v>
       </c>
@@ -5608,8 +6392,11 @@
       <c r="E270" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F270" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>80</v>
       </c>
@@ -5622,8 +6409,11 @@
       <c r="E271" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F271" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>409</v>
       </c>
@@ -5636,8 +6426,11 @@
       <c r="E272" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F272" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>80</v>
       </c>
@@ -5650,8 +6443,11 @@
       <c r="E273" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F273" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>412</v>
       </c>
@@ -5664,8 +6460,11 @@
       <c r="E274" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F274" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>409</v>
       </c>
@@ -5678,8 +6477,11 @@
       <c r="E275" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F275" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>415</v>
       </c>
@@ -5692,8 +6494,11 @@
       <c r="E276" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F276" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>29</v>
       </c>
@@ -5706,8 +6511,11 @@
       <c r="E277" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F277" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>341</v>
       </c>
@@ -5720,8 +6528,11 @@
       <c r="E278" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F278" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>16</v>
       </c>
@@ -5734,8 +6545,11 @@
       <c r="E279" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F279" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>265</v>
       </c>
@@ -5748,8 +6562,11 @@
       <c r="E280" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F280" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>422</v>
       </c>
@@ -5762,8 +6579,11 @@
       <c r="E281" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F281" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>424</v>
       </c>
@@ -5776,8 +6596,11 @@
       <c r="E282" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F282" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>60</v>
       </c>
@@ -5790,8 +6613,11 @@
       <c r="E283" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F283" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -5804,8 +6630,11 @@
       <c r="E284" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F284" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>44</v>
       </c>
@@ -5818,8 +6647,11 @@
       <c r="E285" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F285" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>429</v>
       </c>
@@ -5832,8 +6664,11 @@
       <c r="E286" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F286" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>73</v>
       </c>
@@ -5846,8 +6681,11 @@
       <c r="E287" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F287" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>18</v>
       </c>
@@ -5860,8 +6698,11 @@
       <c r="E288" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F288" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>433</v>
       </c>
@@ -5874,8 +6715,11 @@
       <c r="E289" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F289" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>29</v>
       </c>
@@ -5888,8 +6732,11 @@
       <c r="E290" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F290" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>29</v>
       </c>
@@ -5902,8 +6749,11 @@
       <c r="E291" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F291" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>437</v>
       </c>
@@ -5916,8 +6766,11 @@
       <c r="E292" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F292" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -5930,8 +6783,11 @@
       <c r="E293" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F293" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>16</v>
       </c>
@@ -5944,8 +6800,11 @@
       <c r="E294" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F294" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>92</v>
       </c>
@@ -5958,8 +6817,11 @@
       <c r="E295" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F295" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>442</v>
       </c>
@@ -5972,8 +6834,11 @@
       <c r="E296" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F296" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>44</v>
       </c>
@@ -5986,8 +6851,11 @@
       <c r="E297" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F297" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>125</v>
       </c>
@@ -6000,8 +6868,11 @@
       <c r="E298" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F298" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>73</v>
       </c>
@@ -6014,8 +6885,11 @@
       <c r="E299" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F299" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>446</v>
       </c>
@@ -6028,8 +6902,11 @@
       <c r="E300" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F300" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>80</v>
       </c>
@@ -6042,8 +6919,11 @@
       <c r="E301" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F301" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>385</v>
       </c>
@@ -6056,8 +6936,11 @@
       <c r="E302" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F302" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -6070,8 +6953,11 @@
       <c r="E303" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F303" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>350</v>
       </c>
@@ -6084,8 +6970,11 @@
       <c r="E304" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F304" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -6098,8 +6987,11 @@
       <c r="E305" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F305" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>356</v>
       </c>
@@ -6112,8 +7004,11 @@
       <c r="E306" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F306" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>73</v>
       </c>
@@ -6126,8 +7021,11 @@
       <c r="E307" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F307" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>385</v>
       </c>
@@ -6140,8 +7038,11 @@
       <c r="E308" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F308" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>21</v>
       </c>
@@ -6154,8 +7055,11 @@
       <c r="E309" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F309" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>6</v>
       </c>
@@ -6168,8 +7072,11 @@
       <c r="E310" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F310" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -6182,8 +7089,11 @@
       <c r="E311" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F311" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>10</v>
       </c>
@@ -6196,8 +7106,11 @@
       <c r="E312" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F312" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>44</v>
       </c>
@@ -6210,8 +7123,11 @@
       <c r="E313" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F313" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>244</v>
       </c>
@@ -6224,8 +7140,11 @@
       <c r="E314" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F314" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>462</v>
       </c>
@@ -6239,7 +7158,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -6253,7 +7172,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>41</v>
       </c>
@@ -6265,6 +7184,11 @@
       </c>
       <c r="E317" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F318" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlanSam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950BD4D-F85F-411B-B3BF-A5847BE7613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC4A12-1B14-4416-A7BE-3D7C68448D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4F9A9B44-54FA-4D5C-A39D-44836A046FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$318</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="478">
   <si>
     <t>City</t>
   </si>
@@ -284,9 +287,6 @@
     <t>GreenTek Plast</t>
   </si>
   <si>
-    <t xml:space="preserve">Working on Documentation </t>
-  </si>
-  <si>
     <t>Nellore</t>
   </si>
   <si>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>Sobha Ltd</t>
-  </si>
-  <si>
-    <t>Working on documentation</t>
   </si>
   <si>
     <t>Bankura</t>
@@ -1856,10 +1853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9A6602-B321-4885-AC95-A67957842A95}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F318"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,10 +1887,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1934,7 +1932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1976,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1990,7 +1988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2018,7 +2016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2046,7 +2044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2060,7 +2058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2116,7 +2114,7 @@
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -2133,10 +2131,10 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2150,7 +2148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +2162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2192,7 +2190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2220,7 +2218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2234,10 +2232,10 @@
         <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2251,10 +2249,10 @@
         <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2268,10 +2266,10 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2285,10 +2283,10 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2319,7 +2317,7 @@
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2336,7 +2334,7 @@
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2353,7 +2351,7 @@
         <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2367,18 +2365,18 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="F33" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2387,7 +2385,7 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -2395,7 +2393,7 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>53</v>
@@ -2404,15 +2402,15 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
@@ -2421,7 +2419,7 @@
         <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2429,7 +2427,7 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -2438,24 +2436,24 @@
         <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -2463,7 +2461,7 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
@@ -2472,15 +2470,15 @@
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2489,7 +2487,7 @@
         <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -2497,7 +2495,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -2506,24 +2504,24 @@
         <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>96</v>
       </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
       <c r="E42" t="s">
         <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -2531,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
         <v>53</v>
@@ -2540,24 +2538,24 @@
         <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
         <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2565,16 +2563,16 @@
         <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -2582,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
         <v>53</v>
@@ -2591,15 +2589,15 @@
         <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>103</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2608,15 +2606,15 @@
         <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
         <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
@@ -2625,24 +2623,24 @@
         <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
         <v>106</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>107</v>
       </c>
-      <c r="D49" t="s">
-        <v>108</v>
-      </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2650,7 +2648,7 @@
         <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
         <v>56</v>
@@ -2659,15 +2657,15 @@
         <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
         <v>110</v>
-      </c>
-      <c r="C51" t="s">
-        <v>111</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
@@ -2676,32 +2674,32 @@
         <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
         <v>112</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>113</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>114</v>
       </c>
-      <c r="E52" t="s">
-        <v>115</v>
-      </c>
       <c r="F52" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
         <v>53</v>
@@ -2710,15 +2708,15 @@
         <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
         <v>117</v>
-      </c>
-      <c r="C54" t="s">
-        <v>118</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -2727,7 +2725,7 @@
         <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -2735,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
         <v>34</v>
@@ -2744,66 +2742,66 @@
         <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>36</v>
       </c>
       <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
         <v>120</v>
       </c>
-      <c r="D56" t="s">
-        <v>121</v>
-      </c>
       <c r="E56" t="s">
         <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
       <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
         <v>123</v>
       </c>
-      <c r="D58" t="s">
-        <v>124</v>
-      </c>
       <c r="E58" t="s">
         <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
         <v>125</v>
-      </c>
-      <c r="C59" t="s">
-        <v>126</v>
       </c>
       <c r="D59" t="s">
         <v>53</v>
@@ -2812,32 +2810,32 @@
         <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
         <v>127</v>
       </c>
-      <c r="C60" t="s">
-        <v>128</v>
-      </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
         <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -2846,15 +2844,15 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2863,15 +2861,15 @@
         <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
         <v>131</v>
-      </c>
-      <c r="C63" t="s">
-        <v>132</v>
       </c>
       <c r="D63" t="s">
         <v>53</v>
@@ -2880,24 +2878,24 @@
         <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>60</v>
       </c>
       <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
         <v>133</v>
       </c>
-      <c r="D64" t="s">
-        <v>134</v>
-      </c>
       <c r="E64" t="s">
         <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2905,7 +2903,7 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
         <v>34</v>
@@ -2914,15 +2912,15 @@
         <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2931,32 +2929,32 @@
         <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
         <v>137</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>138</v>
       </c>
-      <c r="D67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
         <v>139</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -2965,32 +2963,32 @@
         <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
         <v>141</v>
       </c>
-      <c r="D69" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>142</v>
       </c>
-      <c r="F69" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="C70" t="s">
         <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>144</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -2999,15 +2997,15 @@
         <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3016,15 +3014,15 @@
         <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3033,49 +3031,49 @@
         <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
         <v>147</v>
       </c>
-      <c r="C73" t="s">
-        <v>148</v>
-      </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E73" t="s">
         <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
         <v>149</v>
       </c>
-      <c r="C74" t="s">
-        <v>150</v>
-      </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
         <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
         <v>151</v>
-      </c>
-      <c r="C75" t="s">
-        <v>152</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -3084,15 +3082,15 @@
         <v>50</v>
       </c>
       <c r="F75" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3101,49 +3099,49 @@
         <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
         <v>154</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>155</v>
       </c>
-      <c r="E77" t="s">
-        <v>156</v>
-      </c>
       <c r="F77" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
         <v>157</v>
       </c>
-      <c r="C78" t="s">
-        <v>158</v>
-      </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" t="s">
         <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -3152,15 +3150,15 @@
         <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
         <v>34</v>
@@ -3169,32 +3167,32 @@
         <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" t="s">
         <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D82" t="s">
         <v>53</v>
@@ -3203,15 +3201,15 @@
         <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D83" t="s">
         <v>34</v>
@@ -3220,32 +3218,32 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
         <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -3254,15 +3252,15 @@
         <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
         <v>166</v>
-      </c>
-      <c r="C86" t="s">
-        <v>167</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -3271,15 +3269,15 @@
         <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
         <v>168</v>
-      </c>
-      <c r="C87" t="s">
-        <v>169</v>
       </c>
       <c r="D87" t="s">
         <v>56</v>
@@ -3288,15 +3286,15 @@
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -3305,15 +3303,15 @@
         <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" t="s">
         <v>171</v>
-      </c>
-      <c r="C89" t="s">
-        <v>172</v>
       </c>
       <c r="D89" t="s">
         <v>34</v>
@@ -3322,15 +3320,15 @@
         <v>50</v>
       </c>
       <c r="F89" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" t="s">
         <v>173</v>
-      </c>
-      <c r="C90" t="s">
-        <v>174</v>
       </c>
       <c r="D90" t="s">
         <v>34</v>
@@ -3339,41 +3337,41 @@
         <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E92" t="s">
         <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -3381,24 +3379,24 @@
         <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E93" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -3407,15 +3405,15 @@
         <v>50</v>
       </c>
       <c r="F94" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -3424,15 +3422,15 @@
         <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3441,7 +3439,7 @@
         <v>50</v>
       </c>
       <c r="F96" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -3449,7 +3447,7 @@
         <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D97" t="s">
         <v>56</v>
@@ -3458,15 +3456,15 @@
         <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D98" t="s">
         <v>56</v>
@@ -3475,15 +3473,15 @@
         <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
         <v>56</v>
@@ -3492,15 +3490,15 @@
         <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D100" t="s">
         <v>43</v>
@@ -3509,15 +3507,15 @@
         <v>50</v>
       </c>
       <c r="F100" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -3526,7 +3524,7 @@
         <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -3534,7 +3532,7 @@
         <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -3543,15 +3541,15 @@
         <v>50</v>
       </c>
       <c r="F102" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D103" t="s">
         <v>40</v>
@@ -3560,15 +3558,15 @@
         <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3577,15 +3575,15 @@
         <v>50</v>
       </c>
       <c r="F104" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D105" t="s">
         <v>34</v>
@@ -3594,7 +3592,7 @@
         <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -3602,16 +3600,16 @@
         <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E106" t="s">
         <v>50</v>
       </c>
       <c r="F106" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -3619,24 +3617,24 @@
         <v>73</v>
       </c>
       <c r="C107" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107" t="s">
+        <v>50</v>
+      </c>
+      <c r="F107" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" t="s">
         <v>194</v>
-      </c>
-      <c r="D107" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" t="s">
-        <v>178</v>
-      </c>
-      <c r="F107" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>195</v>
-      </c>
-      <c r="C108" t="s">
-        <v>196</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -3645,15 +3643,15 @@
         <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -3662,32 +3660,32 @@
         <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>198</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>199</v>
-      </c>
-      <c r="D110" t="s">
-        <v>114</v>
-      </c>
-      <c r="E110" t="s">
-        <v>47</v>
-      </c>
-      <c r="F110" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" t="s">
-        <v>201</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -3696,15 +3694,15 @@
         <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -3713,32 +3711,32 @@
         <v>47</v>
       </c>
       <c r="F112" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>203</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>204</v>
-      </c>
-      <c r="D113" t="s">
-        <v>124</v>
-      </c>
-      <c r="E113" t="s">
-        <v>178</v>
-      </c>
-      <c r="F113" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>205</v>
-      </c>
-      <c r="C114" t="s">
-        <v>206</v>
       </c>
       <c r="D114" t="s">
         <v>34</v>
@@ -3747,7 +3745,7 @@
         <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -3755,41 +3753,41 @@
         <v>66</v>
       </c>
       <c r="C115" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" t="s">
+        <v>206</v>
+      </c>
+      <c r="E115" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>207</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C116" t="s">
         <v>208</v>
       </c>
-      <c r="E115" t="s">
-        <v>50</v>
-      </c>
-      <c r="F115" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>209</v>
-      </c>
-      <c r="C116" t="s">
-        <v>210</v>
-      </c>
       <c r="D116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E116" t="s">
         <v>47</v>
       </c>
       <c r="F116" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D117" t="s">
         <v>40</v>
@@ -3798,15 +3796,15 @@
         <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D118" t="s">
         <v>34</v>
@@ -3815,15 +3813,15 @@
         <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D119" t="s">
         <v>34</v>
@@ -3832,32 +3830,32 @@
         <v>47</v>
       </c>
       <c r="F119" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
+      </c>
+      <c r="D120" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>216</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>217</v>
-      </c>
-      <c r="D120" t="s">
-        <v>108</v>
-      </c>
-      <c r="E120" t="s">
-        <v>47</v>
-      </c>
-      <c r="F120" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>218</v>
-      </c>
-      <c r="C121" t="s">
-        <v>219</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -3866,49 +3864,49 @@
         <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>25</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D122" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E122" t="s">
         <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" t="s">
+        <v>221</v>
+      </c>
+      <c r="D123" t="s">
         <v>222</v>
       </c>
-      <c r="C123" t="s">
-        <v>223</v>
-      </c>
-      <c r="D123" t="s">
-        <v>224</v>
-      </c>
       <c r="E123" t="s">
         <v>50</v>
       </c>
       <c r="F123" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D124" t="s">
         <v>43</v>
@@ -3917,15 +3915,15 @@
         <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D125" t="s">
         <v>46</v>
@@ -3934,15 +3932,15 @@
         <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C126" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D126" t="s">
         <v>53</v>
@@ -3951,49 +3949,49 @@
         <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" t="s">
+        <v>47</v>
+      </c>
+      <c r="F127" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>229</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>230</v>
       </c>
-      <c r="D127" t="s">
-        <v>114</v>
-      </c>
-      <c r="E127" t="s">
-        <v>47</v>
-      </c>
-      <c r="F127" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>231</v>
-      </c>
-      <c r="C128" t="s">
-        <v>232</v>
-      </c>
       <c r="D128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E128" t="s">
         <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>73</v>
       </c>
       <c r="C129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D129" t="s">
         <v>68</v>
@@ -4002,7 +4000,7 @@
         <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -4010,7 +4008,7 @@
         <v>78</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -4019,15 +4017,15 @@
         <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D131" t="s">
         <v>46</v>
@@ -4036,15 +4034,15 @@
         <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -4053,32 +4051,32 @@
         <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>75</v>
       </c>
       <c r="C133" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" t="s">
         <v>238</v>
-      </c>
-      <c r="D133" t="s">
-        <v>114</v>
-      </c>
-      <c r="E133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F133" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" t="s">
-        <v>240</v>
       </c>
       <c r="D134" t="s">
         <v>34</v>
@@ -4087,32 +4085,32 @@
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C135" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D135" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E135" t="s">
         <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C136" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -4121,15 +4119,15 @@
         <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D137" t="s">
         <v>63</v>
@@ -4138,15 +4136,15 @@
         <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C138" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -4155,15 +4153,15 @@
         <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C139" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -4172,83 +4170,83 @@
         <v>50</v>
       </c>
       <c r="F139" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>73</v>
       </c>
       <c r="C140" t="s">
+        <v>244</v>
+      </c>
+      <c r="D140" t="s">
+        <v>245</v>
+      </c>
+      <c r="E140" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>246</v>
       </c>
-      <c r="D140" t="s">
+      <c r="C141" t="s">
         <v>247</v>
       </c>
-      <c r="E140" t="s">
-        <v>47</v>
-      </c>
-      <c r="F140" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="D141" t="s">
+        <v>113</v>
+      </c>
+      <c r="E141" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>246</v>
+      </c>
+      <c r="C142" t="s">
+        <v>247</v>
+      </c>
+      <c r="D142" t="s">
         <v>248</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E142" t="s">
+        <v>47</v>
+      </c>
+      <c r="F142" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>249</v>
       </c>
-      <c r="D141" t="s">
-        <v>114</v>
-      </c>
-      <c r="E141" t="s">
-        <v>47</v>
-      </c>
-      <c r="F141" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>248</v>
-      </c>
-      <c r="C142" t="s">
-        <v>249</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C143" t="s">
         <v>250</v>
       </c>
-      <c r="E142" t="s">
-        <v>47</v>
-      </c>
-      <c r="F142" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="D143" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>251</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>252</v>
-      </c>
-      <c r="D143" t="s">
-        <v>114</v>
-      </c>
-      <c r="E143" t="s">
-        <v>47</v>
-      </c>
-      <c r="F143" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>253</v>
-      </c>
-      <c r="C144" t="s">
-        <v>254</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -4257,7 +4255,7 @@
         <v>47</v>
       </c>
       <c r="F144" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -4265,7 +4263,7 @@
         <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -4274,32 +4272,32 @@
         <v>50</v>
       </c>
       <c r="F145" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" t="s">
+        <v>255</v>
+      </c>
+      <c r="D146" t="s">
         <v>256</v>
       </c>
-      <c r="C146" t="s">
-        <v>257</v>
-      </c>
-      <c r="D146" t="s">
-        <v>258</v>
-      </c>
       <c r="E146" t="s">
         <v>47</v>
       </c>
       <c r="F146" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>80</v>
       </c>
       <c r="C147" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D147" t="s">
         <v>53</v>
@@ -4308,7 +4306,7 @@
         <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -4316,16 +4314,16 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D148" t="s">
         <v>34</v>
       </c>
       <c r="E148" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F148" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -4333,7 +4331,7 @@
         <v>44</v>
       </c>
       <c r="C149" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -4342,15 +4340,15 @@
         <v>50</v>
       </c>
       <c r="F149" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C150" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4359,7 +4357,7 @@
         <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -4367,41 +4365,41 @@
         <v>21</v>
       </c>
       <c r="C151" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E151" t="s">
         <v>50</v>
       </c>
       <c r="F151" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>80</v>
       </c>
       <c r="C152" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D152" t="s">
+        <v>113</v>
+      </c>
+      <c r="E152" t="s">
         <v>114</v>
       </c>
-      <c r="E152" t="s">
-        <v>115</v>
-      </c>
       <c r="F152" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C153" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D153" t="s">
         <v>68</v>
@@ -4410,7 +4408,7 @@
         <v>50</v>
       </c>
       <c r="F153" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -4418,7 +4416,7 @@
         <v>66</v>
       </c>
       <c r="C154" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
@@ -4427,24 +4425,24 @@
         <v>50</v>
       </c>
       <c r="F154" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D155" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E155" t="s">
         <v>47</v>
       </c>
       <c r="F155" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -4452,7 +4450,7 @@
         <v>44</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -4461,15 +4459,15 @@
         <v>50</v>
       </c>
       <c r="F156" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C157" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -4478,15 +4476,15 @@
         <v>50</v>
       </c>
       <c r="F157" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>73</v>
       </c>
       <c r="C158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D158" t="s">
         <v>53</v>
@@ -4495,15 +4493,15 @@
         <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C159" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
@@ -4512,7 +4510,7 @@
         <v>47</v>
       </c>
       <c r="F159" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -4520,16 +4518,16 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D160" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E160" t="s">
         <v>50</v>
       </c>
       <c r="F160" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -4537,7 +4535,7 @@
         <v>73</v>
       </c>
       <c r="C161" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -4546,49 +4544,49 @@
         <v>50</v>
       </c>
       <c r="F161" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>41</v>
       </c>
       <c r="C162" t="s">
+        <v>273</v>
+      </c>
+      <c r="D162" t="s">
+        <v>113</v>
+      </c>
+      <c r="E162" t="s">
+        <v>47</v>
+      </c>
+      <c r="F162" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163" t="s">
         <v>275</v>
       </c>
-      <c r="D162" t="s">
-        <v>114</v>
-      </c>
-      <c r="E162" t="s">
-        <v>47</v>
-      </c>
-      <c r="F162" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>276</v>
-      </c>
-      <c r="C163" t="s">
-        <v>277</v>
-      </c>
       <c r="D163" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E163" t="s">
         <v>47</v>
       </c>
       <c r="F163" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>80</v>
       </c>
       <c r="C164" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -4597,15 +4595,15 @@
         <v>47</v>
       </c>
       <c r="F164" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
@@ -4614,32 +4612,32 @@
         <v>50</v>
       </c>
       <c r="F165" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C166" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D166" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E166" t="s">
         <v>47</v>
       </c>
       <c r="F166" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C167" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -4648,32 +4646,32 @@
         <v>50</v>
       </c>
       <c r="F167" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D168" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E168" t="s">
         <v>47</v>
       </c>
       <c r="F168" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>60</v>
       </c>
       <c r="C169" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
@@ -4682,49 +4680,49 @@
         <v>47</v>
       </c>
       <c r="F169" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C170" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E170" t="s">
         <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C171" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D171" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E171" t="s">
         <v>50</v>
       </c>
       <c r="F171" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C172" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
@@ -4733,15 +4731,15 @@
         <v>50</v>
       </c>
       <c r="F172" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C173" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D173" t="s">
         <v>53</v>
@@ -4750,7 +4748,7 @@
         <v>47</v>
       </c>
       <c r="F173" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -4758,7 +4756,7 @@
         <v>73</v>
       </c>
       <c r="C174" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D174" t="s">
         <v>8</v>
@@ -4767,83 +4765,83 @@
         <v>50</v>
       </c>
       <c r="F174" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>78</v>
       </c>
       <c r="C175" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E175" t="s">
         <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C176" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D176" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E176" t="s">
         <v>47</v>
       </c>
       <c r="F176" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D177" t="s">
         <v>53</v>
       </c>
       <c r="E177" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F177" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D178" t="s">
         <v>34</v>
       </c>
       <c r="E178" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F178" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>30</v>
       </c>
       <c r="C179" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D179" t="s">
         <v>46</v>
@@ -4852,49 +4850,49 @@
         <v>47</v>
       </c>
       <c r="F179" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C180" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D180" t="s">
         <v>63</v>
       </c>
       <c r="E180" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F180" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C181" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D181" t="s">
         <v>8</v>
       </c>
       <c r="E181" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F181" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C182" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D182" t="s">
         <v>23</v>
@@ -4903,15 +4901,15 @@
         <v>50</v>
       </c>
       <c r="F182" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
@@ -4920,7 +4918,7 @@
         <v>47</v>
       </c>
       <c r="F183" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -4928,16 +4926,16 @@
         <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D184" t="s">
         <v>34</v>
       </c>
       <c r="E184" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F184" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -4945,7 +4943,7 @@
         <v>60</v>
       </c>
       <c r="C185" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D185" t="s">
         <v>23</v>
@@ -4954,15 +4952,15 @@
         <v>50</v>
       </c>
       <c r="F185" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C186" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D186" t="s">
         <v>23</v>
@@ -4971,41 +4969,41 @@
         <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C187" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D187" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E187" t="s">
         <v>47</v>
       </c>
       <c r="F187" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>57</v>
       </c>
       <c r="C188" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D188" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E188" t="s">
         <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -5013,7 +5011,7 @@
         <v>30</v>
       </c>
       <c r="C189" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D189" t="s">
         <v>68</v>
@@ -5022,7 +5020,7 @@
         <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -5030,50 +5028,50 @@
         <v>29</v>
       </c>
       <c r="C190" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D190" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E190" t="s">
         <v>50</v>
       </c>
       <c r="F190" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C191" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D191" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E191" t="s">
         <v>50</v>
       </c>
       <c r="F191" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>73</v>
       </c>
       <c r="C192" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D192" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E192" t="s">
         <v>47</v>
       </c>
       <c r="F192" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -5081,24 +5079,24 @@
         <v>80</v>
       </c>
       <c r="C193" t="s">
+        <v>309</v>
+      </c>
+      <c r="D193" t="s">
+        <v>123</v>
+      </c>
+      <c r="E193" t="s">
+        <v>50</v>
+      </c>
+      <c r="F193" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>310</v>
+      </c>
+      <c r="C194" t="s">
         <v>311</v>
-      </c>
-      <c r="D193" t="s">
-        <v>124</v>
-      </c>
-      <c r="E193" t="s">
-        <v>50</v>
-      </c>
-      <c r="F193" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>312</v>
-      </c>
-      <c r="C194" t="s">
-        <v>313</v>
       </c>
       <c r="D194" t="s">
         <v>23</v>
@@ -5107,15 +5105,15 @@
         <v>47</v>
       </c>
       <c r="F194" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C195" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -5124,15 +5122,15 @@
         <v>47</v>
       </c>
       <c r="F195" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C196" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D196" t="s">
         <v>56</v>
@@ -5141,15 +5139,15 @@
         <v>50</v>
       </c>
       <c r="F196" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C197" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D197" t="s">
         <v>34</v>
@@ -5158,7 +5156,7 @@
         <v>47</v>
       </c>
       <c r="F197" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -5166,7 +5164,7 @@
         <v>73</v>
       </c>
       <c r="C198" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D198" t="s">
         <v>8</v>
@@ -5175,15 +5173,15 @@
         <v>50</v>
       </c>
       <c r="F198" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C199" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D199" t="s">
         <v>56</v>
@@ -5192,7 +5190,7 @@
         <v>47</v>
       </c>
       <c r="F199" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -5200,24 +5198,24 @@
         <v>80</v>
       </c>
       <c r="C200" t="s">
+        <v>318</v>
+      </c>
+      <c r="D200" t="s">
+        <v>123</v>
+      </c>
+      <c r="E200" t="s">
+        <v>50</v>
+      </c>
+      <c r="F200" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>319</v>
+      </c>
+      <c r="C201" t="s">
         <v>320</v>
-      </c>
-      <c r="D200" t="s">
-        <v>124</v>
-      </c>
-      <c r="E200" t="s">
-        <v>50</v>
-      </c>
-      <c r="F200" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>321</v>
-      </c>
-      <c r="C201" t="s">
-        <v>322</v>
       </c>
       <c r="D201" t="s">
         <v>43</v>
@@ -5226,7 +5224,7 @@
         <v>47</v>
       </c>
       <c r="F201" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -5234,41 +5232,41 @@
         <v>80</v>
       </c>
       <c r="C202" t="s">
+        <v>321</v>
+      </c>
+      <c r="D202" t="s">
+        <v>123</v>
+      </c>
+      <c r="E202" t="s">
+        <v>50</v>
+      </c>
+      <c r="F202" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>322</v>
+      </c>
+      <c r="C203" t="s">
         <v>323</v>
       </c>
-      <c r="D202" t="s">
-        <v>124</v>
-      </c>
-      <c r="E202" t="s">
-        <v>50</v>
-      </c>
-      <c r="F202" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>324</v>
-      </c>
-      <c r="C203" t="s">
-        <v>325</v>
-      </c>
       <c r="D203" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E203" t="s">
         <v>47</v>
       </c>
       <c r="F203" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D204" t="s">
         <v>8</v>
@@ -5277,15 +5275,15 @@
         <v>47</v>
       </c>
       <c r="F204" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>44</v>
       </c>
       <c r="C205" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D205" t="s">
         <v>23</v>
@@ -5294,7 +5292,7 @@
         <v>47</v>
       </c>
       <c r="F205" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -5302,16 +5300,16 @@
         <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D206" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E206" t="s">
         <v>50</v>
       </c>
       <c r="F206" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -5319,24 +5317,24 @@
         <v>80</v>
       </c>
       <c r="C207" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D207" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E207" t="s">
         <v>50</v>
       </c>
       <c r="F207" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C208" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D208" t="s">
         <v>53</v>
@@ -5345,66 +5343,66 @@
         <v>47</v>
       </c>
       <c r="F208" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C209" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D209" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E209" t="s">
         <v>50</v>
       </c>
       <c r="F209" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>6</v>
       </c>
       <c r="C210" t="s">
+        <v>330</v>
+      </c>
+      <c r="D210" t="s">
+        <v>331</v>
+      </c>
+      <c r="E210" t="s">
+        <v>47</v>
+      </c>
+      <c r="F210" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>332</v>
       </c>
-      <c r="D210" t="s">
+      <c r="C211" t="s">
         <v>333</v>
       </c>
-      <c r="E210" t="s">
-        <v>47</v>
-      </c>
-      <c r="F210" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+      <c r="D211" t="s">
+        <v>113</v>
+      </c>
+      <c r="E211" t="s">
+        <v>47</v>
+      </c>
+      <c r="F211" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>334</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>335</v>
-      </c>
-      <c r="D211" t="s">
-        <v>114</v>
-      </c>
-      <c r="E211" t="s">
-        <v>47</v>
-      </c>
-      <c r="F211" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>336</v>
-      </c>
-      <c r="C212" t="s">
-        <v>337</v>
       </c>
       <c r="D212" t="s">
         <v>12</v>
@@ -5413,49 +5411,49 @@
         <v>47</v>
       </c>
       <c r="F212" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C213" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D213" t="s">
         <v>8</v>
       </c>
       <c r="E213" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F213" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
+        <v>336</v>
+      </c>
+      <c r="C214" t="s">
         <v>338</v>
-      </c>
-      <c r="C214" t="s">
-        <v>340</v>
       </c>
       <c r="D214" t="s">
         <v>63</v>
       </c>
       <c r="E214" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F214" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C215" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D215" t="s">
         <v>23</v>
@@ -5464,15 +5462,15 @@
         <v>47</v>
       </c>
       <c r="F215" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C216" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D216" t="s">
         <v>34</v>
@@ -5481,7 +5479,7 @@
         <v>50</v>
       </c>
       <c r="F216" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -5489,16 +5487,16 @@
         <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D217" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E217" t="s">
         <v>50</v>
       </c>
       <c r="F217" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -5506,7 +5504,7 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D218" t="s">
         <v>53</v>
@@ -5515,15 +5513,15 @@
         <v>50</v>
       </c>
       <c r="F218" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>44</v>
       </c>
       <c r="C219" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D219" t="s">
         <v>8</v>
@@ -5532,24 +5530,24 @@
         <v>47</v>
       </c>
       <c r="F219" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>44</v>
       </c>
       <c r="C220" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D220" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E220" t="s">
         <v>47</v>
       </c>
       <c r="F220" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -5557,7 +5555,7 @@
         <v>80</v>
       </c>
       <c r="C221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D221" t="s">
         <v>23</v>
@@ -5566,15 +5564,15 @@
         <v>50</v>
       </c>
       <c r="F221" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>44</v>
       </c>
       <c r="C222" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D222" t="s">
         <v>23</v>
@@ -5583,15 +5581,15 @@
         <v>47</v>
       </c>
       <c r="F222" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>44</v>
       </c>
       <c r="C223" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D223" t="s">
         <v>34</v>
@@ -5600,49 +5598,49 @@
         <v>47</v>
       </c>
       <c r="F223" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C224" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D224" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E224" t="s">
         <v>47</v>
       </c>
       <c r="F224" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C225" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D225" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E225" t="s">
         <v>50</v>
       </c>
       <c r="F225" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>80</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D226" t="s">
         <v>23</v>
@@ -5651,15 +5649,15 @@
         <v>47</v>
       </c>
       <c r="F226" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D227" t="s">
         <v>46</v>
@@ -5668,15 +5666,15 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C228" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D228" t="s">
         <v>12</v>
@@ -5685,41 +5683,41 @@
         <v>50</v>
       </c>
       <c r="F228" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>356</v>
+      </c>
+      <c r="C229" t="s">
+        <v>357</v>
+      </c>
+      <c r="D229" t="s">
+        <v>113</v>
+      </c>
+      <c r="E229" t="s">
+        <v>47</v>
+      </c>
+      <c r="F229" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>358</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C230" t="s">
         <v>359</v>
       </c>
-      <c r="D229" t="s">
-        <v>114</v>
-      </c>
-      <c r="E229" t="s">
-        <v>47</v>
-      </c>
-      <c r="F229" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>360</v>
-      </c>
-      <c r="C230" t="s">
-        <v>361</v>
-      </c>
       <c r="D230" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E230" t="s">
         <v>47</v>
       </c>
       <c r="F230" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -5727,7 +5725,7 @@
         <v>16</v>
       </c>
       <c r="C231" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D231" t="s">
         <v>8</v>
@@ -5736,15 +5734,15 @@
         <v>50</v>
       </c>
       <c r="F231" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>73</v>
       </c>
       <c r="C232" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D232" t="s">
         <v>23</v>
@@ -5753,15 +5751,15 @@
         <v>47</v>
       </c>
       <c r="F232" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>80</v>
       </c>
       <c r="C233" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D233" t="s">
         <v>12</v>
@@ -5770,15 +5768,15 @@
         <v>47</v>
       </c>
       <c r="F233" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C234" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D234" t="s">
         <v>34</v>
@@ -5787,24 +5785,24 @@
         <v>47</v>
       </c>
       <c r="F234" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>75</v>
       </c>
       <c r="C235" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D235" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E235" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -5812,7 +5810,7 @@
         <v>73</v>
       </c>
       <c r="C236" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D236" t="s">
         <v>56</v>
@@ -5821,7 +5819,7 @@
         <v>50</v>
       </c>
       <c r="F236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -5829,24 +5827,24 @@
         <v>16</v>
       </c>
       <c r="C237" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D237" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E237" t="s">
         <v>50</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C238" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D238" t="s">
         <v>23</v>
@@ -5855,15 +5853,15 @@
         <v>50</v>
       </c>
       <c r="F238" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C239" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D239" t="s">
         <v>23</v>
@@ -5872,24 +5870,24 @@
         <v>50</v>
       </c>
       <c r="F239" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>44</v>
       </c>
       <c r="C240" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D240" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E240" t="s">
         <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -5897,16 +5895,16 @@
         <v>41</v>
       </c>
       <c r="C241" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D241" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E241" t="s">
         <v>50</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -5914,7 +5912,7 @@
         <v>41</v>
       </c>
       <c r="C242" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D242" t="s">
         <v>34</v>
@@ -5923,7 +5921,7 @@
         <v>50</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -5931,24 +5929,24 @@
         <v>41</v>
       </c>
       <c r="C243" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D243" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E243" t="s">
         <v>50</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C244" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D244" t="s">
         <v>34</v>
@@ -5957,7 +5955,7 @@
         <v>50</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -5965,7 +5963,7 @@
         <v>60</v>
       </c>
       <c r="C245" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D245" t="s">
         <v>46</v>
@@ -5974,15 +5972,15 @@
         <v>50</v>
       </c>
       <c r="F245" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>75</v>
       </c>
       <c r="C246" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D246" t="s">
         <v>8</v>
@@ -5991,7 +5989,7 @@
         <v>47</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
@@ -5999,7 +5997,7 @@
         <v>44</v>
       </c>
       <c r="C247" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D247" t="s">
         <v>34</v>
@@ -6008,32 +6006,32 @@
         <v>50</v>
       </c>
       <c r="F247" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C248" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D248" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E248" t="s">
         <v>50</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>75</v>
       </c>
       <c r="C249" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D249" t="s">
         <v>12</v>
@@ -6042,7 +6040,7 @@
         <v>47</v>
       </c>
       <c r="F249" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -6050,16 +6048,16 @@
         <v>80</v>
       </c>
       <c r="C250" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D250" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E250" t="s">
         <v>50</v>
       </c>
       <c r="F250" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -6067,21 +6065,21 @@
         <v>60</v>
       </c>
       <c r="C251" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E251" t="s">
         <v>50</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C252" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D252" t="s">
         <v>68</v>
@@ -6090,15 +6088,15 @@
         <v>50</v>
       </c>
       <c r="F252" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C253" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D253" t="s">
         <v>23</v>
@@ -6107,7 +6105,7 @@
         <v>50</v>
       </c>
       <c r="F253" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -6115,7 +6113,7 @@
         <v>80</v>
       </c>
       <c r="C254" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D254" t="s">
         <v>12</v>
@@ -6124,32 +6122,32 @@
         <v>50</v>
       </c>
       <c r="F254" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C255" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D255" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E255" t="s">
         <v>50</v>
       </c>
       <c r="F255" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C256" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D256" t="s">
         <v>23</v>
@@ -6158,24 +6156,24 @@
         <v>47</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C257" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D257" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E257" t="s">
         <v>50</v>
       </c>
       <c r="F257" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -6183,7 +6181,7 @@
         <v>73</v>
       </c>
       <c r="C258" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D258" t="s">
         <v>23</v>
@@ -6192,7 +6190,7 @@
         <v>50</v>
       </c>
       <c r="F258" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -6200,7 +6198,7 @@
         <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D259" t="s">
         <v>12</v>
@@ -6209,24 +6207,24 @@
         <v>50</v>
       </c>
       <c r="F259" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D260" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E260" t="s">
         <v>50</v>
       </c>
       <c r="F260" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
@@ -6234,7 +6232,7 @@
         <v>29</v>
       </c>
       <c r="C261" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D261" t="s">
         <v>56</v>
@@ -6243,7 +6241,7 @@
         <v>50</v>
       </c>
       <c r="F261" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -6251,41 +6249,41 @@
         <v>69</v>
       </c>
       <c r="C262" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D262" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E262" t="s">
         <v>50</v>
       </c>
       <c r="F262" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C263" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D263" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E263" t="s">
         <v>50</v>
       </c>
       <c r="F263" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C264" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D264" t="s">
         <v>68</v>
@@ -6294,7 +6292,7 @@
         <v>50</v>
       </c>
       <c r="F264" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -6302,7 +6300,7 @@
         <v>44</v>
       </c>
       <c r="C265" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D265" t="s">
         <v>34</v>
@@ -6311,7 +6309,7 @@
         <v>50</v>
       </c>
       <c r="F265" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -6319,24 +6317,24 @@
         <v>41</v>
       </c>
       <c r="C266" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D266" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E266" t="s">
         <v>50</v>
       </c>
       <c r="F266" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C267" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D267" t="s">
         <v>56</v>
@@ -6345,15 +6343,15 @@
         <v>50</v>
       </c>
       <c r="F267" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C268" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D268" t="s">
         <v>12</v>
@@ -6362,18 +6360,18 @@
         <v>72</v>
       </c>
       <c r="F268" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C269" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D269" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E269" t="s">
         <v>50</v>
@@ -6384,7 +6382,7 @@
         <v>80</v>
       </c>
       <c r="C270" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D270" t="s">
         <v>34</v>
@@ -6393,7 +6391,7 @@
         <v>50</v>
       </c>
       <c r="F270" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -6401,24 +6399,24 @@
         <v>80</v>
       </c>
       <c r="C271" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D271" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E271" t="s">
         <v>50</v>
       </c>
       <c r="F271" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C272" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D272" t="s">
         <v>68</v>
@@ -6427,7 +6425,7 @@
         <v>50</v>
       </c>
       <c r="F272" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -6435,41 +6433,41 @@
         <v>80</v>
       </c>
       <c r="C273" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D273" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E273" t="s">
         <v>50</v>
       </c>
       <c r="F273" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C274" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D274" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E274" t="s">
         <v>50</v>
       </c>
       <c r="F274" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C275" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D275" t="s">
         <v>40</v>
@@ -6478,24 +6476,24 @@
         <v>50</v>
       </c>
       <c r="F275" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
+        <v>413</v>
+      </c>
+      <c r="C276" t="s">
+        <v>414</v>
+      </c>
+      <c r="D276" t="s">
         <v>415</v>
       </c>
-      <c r="C276" t="s">
-        <v>416</v>
-      </c>
-      <c r="D276" t="s">
-        <v>417</v>
-      </c>
       <c r="E276" t="s">
         <v>50</v>
       </c>
       <c r="F276" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
@@ -6503,24 +6501,24 @@
         <v>29</v>
       </c>
       <c r="C277" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D277" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E277" t="s">
         <v>50</v>
       </c>
       <c r="F277" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C278" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D278" t="s">
         <v>12</v>
@@ -6529,7 +6527,7 @@
         <v>50</v>
       </c>
       <c r="F278" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -6537,7 +6535,7 @@
         <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D279" t="s">
         <v>12</v>
@@ -6546,15 +6544,15 @@
         <v>50</v>
       </c>
       <c r="F279" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C280" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D280" t="s">
         <v>23</v>
@@ -6563,41 +6561,41 @@
         <v>50</v>
       </c>
       <c r="F280" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C281" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D281" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E281" t="s">
         <v>50</v>
       </c>
       <c r="F281" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C282" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D282" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E282" t="s">
         <v>50</v>
       </c>
       <c r="F282" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
@@ -6605,7 +6603,7 @@
         <v>60</v>
       </c>
       <c r="C283" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D283" t="s">
         <v>34</v>
@@ -6614,7 +6612,7 @@
         <v>50</v>
       </c>
       <c r="F283" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -6622,16 +6620,16 @@
         <v>41</v>
       </c>
       <c r="C284" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D284" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E284" t="s">
         <v>50</v>
       </c>
       <c r="F284" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
@@ -6639,7 +6637,7 @@
         <v>44</v>
       </c>
       <c r="C285" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D285" t="s">
         <v>56</v>
@@ -6648,15 +6646,15 @@
         <v>50</v>
       </c>
       <c r="F285" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C286" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D286" t="s">
         <v>34</v>
@@ -6665,7 +6663,7 @@
         <v>50</v>
       </c>
       <c r="F286" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -6673,7 +6671,7 @@
         <v>73</v>
       </c>
       <c r="C287" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D287" t="s">
         <v>34</v>
@@ -6682,7 +6680,7 @@
         <v>50</v>
       </c>
       <c r="F287" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -6690,7 +6688,7 @@
         <v>18</v>
       </c>
       <c r="C288" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D288" t="s">
         <v>40</v>
@@ -6699,15 +6697,15 @@
         <v>50</v>
       </c>
       <c r="F288" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C289" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D289" t="s">
         <v>40</v>
@@ -6716,7 +6714,7 @@
         <v>50</v>
       </c>
       <c r="F289" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -6724,7 +6722,7 @@
         <v>29</v>
       </c>
       <c r="C290" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D290" t="s">
         <v>56</v>
@@ -6733,7 +6731,7 @@
         <v>50</v>
       </c>
       <c r="F290" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -6741,7 +6739,7 @@
         <v>29</v>
       </c>
       <c r="C291" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D291" t="s">
         <v>56</v>
@@ -6750,24 +6748,24 @@
         <v>50</v>
       </c>
       <c r="F291" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C292" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D292" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E292" t="s">
         <v>50</v>
       </c>
       <c r="F292" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -6775,7 +6773,7 @@
         <v>6</v>
       </c>
       <c r="C293" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D293" t="s">
         <v>43</v>
@@ -6784,7 +6782,7 @@
         <v>50</v>
       </c>
       <c r="F293" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -6792,7 +6790,7 @@
         <v>16</v>
       </c>
       <c r="C294" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D294" t="s">
         <v>8</v>
@@ -6801,41 +6799,41 @@
         <v>50</v>
       </c>
       <c r="F294" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C295" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D295" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E295" t="s">
         <v>50</v>
       </c>
       <c r="F295" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C296" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D296" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E296" t="s">
         <v>50</v>
       </c>
       <c r="F296" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
@@ -6843,24 +6841,24 @@
         <v>44</v>
       </c>
       <c r="C297" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D297" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E297" t="s">
         <v>50</v>
       </c>
       <c r="F297" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C298" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D298" t="s">
         <v>23</v>
@@ -6869,7 +6867,7 @@
         <v>50</v>
       </c>
       <c r="F298" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
@@ -6877,7 +6875,7 @@
         <v>73</v>
       </c>
       <c r="C299" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D299" t="s">
         <v>12</v>
@@ -6886,15 +6884,15 @@
         <v>50</v>
       </c>
       <c r="F299" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C300" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D300" t="s">
         <v>12</v>
@@ -6903,7 +6901,7 @@
         <v>50</v>
       </c>
       <c r="F300" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
@@ -6911,92 +6909,92 @@
         <v>80</v>
       </c>
       <c r="C301" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D301" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E301" t="s">
         <v>50</v>
       </c>
       <c r="F301" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C302" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D302" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E302" t="s">
         <v>50</v>
       </c>
       <c r="F302" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D303" t="s">
         <v>40</v>
       </c>
       <c r="E303" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F303" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C304" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D304" t="s">
         <v>12</v>
       </c>
       <c r="E304" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F304" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>6</v>
       </c>
       <c r="C305" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D305" t="s">
         <v>12</v>
       </c>
       <c r="E305" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F305" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C306" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D306" t="s">
         <v>12</v>
@@ -7005,7 +7003,7 @@
         <v>50</v>
       </c>
       <c r="F306" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
@@ -7013,7 +7011,7 @@
         <v>73</v>
       </c>
       <c r="C307" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D307" t="s">
         <v>46</v>
@@ -7022,15 +7020,15 @@
         <v>50</v>
       </c>
       <c r="F307" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C308" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D308" t="s">
         <v>23</v>
@@ -7039,7 +7037,7 @@
         <v>50</v>
       </c>
       <c r="F308" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
@@ -7047,7 +7045,7 @@
         <v>21</v>
       </c>
       <c r="C309" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D309" t="s">
         <v>23</v>
@@ -7056,7 +7054,7 @@
         <v>50</v>
       </c>
       <c r="F309" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
@@ -7064,16 +7062,16 @@
         <v>6</v>
       </c>
       <c r="C310" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D310" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E310" t="s">
         <v>50</v>
       </c>
       <c r="F310" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
@@ -7081,16 +7079,16 @@
         <v>6</v>
       </c>
       <c r="C311" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D311" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E311" t="s">
         <v>50</v>
       </c>
       <c r="F311" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -7098,7 +7096,7 @@
         <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D312" t="s">
         <v>12</v>
@@ -7107,91 +7105,98 @@
         <v>50</v>
       </c>
       <c r="F312" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>44</v>
       </c>
       <c r="C313" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D313" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E313" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F313" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C314" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D314" t="s">
         <v>63</v>
       </c>
       <c r="E314" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F314" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C315" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D315" t="s">
         <v>23</v>
       </c>
       <c r="E315" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>73</v>
       </c>
       <c r="C316" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D316" t="s">
         <v>46</v>
       </c>
       <c r="E316" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>41</v>
       </c>
       <c r="C317" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D317" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E317" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="F318" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F318" xr:uid="{EE9A6602-B321-4885-AC95-A67957842A95}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Working on Documentation"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlanSam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC4A12-1B14-4416-A7BE-3D7C68448D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8B267B-F0CC-4389-8A85-DF3A109CB85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4F9A9B44-54FA-4D5C-A39D-44836A046FE4}"/>
   </bookViews>
@@ -1853,10 +1853,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9A6602-B321-4885-AC95-A67957842A95}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1890,7 +1889,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2058,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>80</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>73</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>193</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>196</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>198</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>212</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>216</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>225</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>227</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>229</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>73</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>75</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>237</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>111</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>73</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>246</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>246</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>249</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>251</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>254</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>80</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>80</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>41</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>73</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>94</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>41</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>274</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>80</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>60</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>284</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>288</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>78</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>148</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>94</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>302</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>57</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>73</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>310</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>312</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>314</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>314</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>319</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>322</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>44</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>148</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>332</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>334</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>339</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -5533,7 +5532,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>44</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>44</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>348</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>80</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>356</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>358</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>73</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>80</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>220</v>
       </c>
@@ -5788,7 +5787,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>75</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>44</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>75</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>75</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>148</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>402</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>348</v>
       </c>
@@ -6972,7 +6971,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>44</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>242</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>460</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -7170,7 +7169,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>41</v>
       </c>
@@ -7184,19 +7183,13 @@
         <v>365</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F318" t="s">
         <v>472</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F318" xr:uid="{EE9A6602-B321-4885-AC95-A67957842A95}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Working on Documentation"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F318" xr:uid="{EE9A6602-B321-4885-AC95-A67957842A95}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>